--- a/INTLINE/data/566/BTP/NG-Debt.xlsx
+++ b/INTLINE/data/566/BTP/NG-Debt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Joann\DEBT 2008-2022\DEBT 2022\debtmar2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Joann\DEBT 2008-2022\DEBT 2022\debt apr2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,8 +16,8 @@
     <sheet name="2022 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2022'!$A$1:$H$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'2022 (2)'!$A$1:$H$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2022'!$A$1:$I$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2022 (2)'!$A$1:$I$27</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>National Government Outstanding Debt</t>
   </si>
@@ -124,10 +124,13 @@
     <t>Feb</t>
   </si>
   <si>
-    <t>As of March 2022</t>
-  </si>
-  <si>
     <t>Mar</t>
+  </si>
+  <si>
+    <t>As of April 2022</t>
+  </si>
+  <si>
+    <t>Apr</t>
   </si>
   <si>
     <r>
@@ -146,7 +149,6 @@
   <si>
     <r>
       <rPr>
-        <i/>
         <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Arial"/>
@@ -169,8 +171,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]#,##0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
@@ -210,17 +213,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -245,13 +239,21 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
       <name val="Arial"/>
@@ -281,30 +283,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -323,6 +301,30 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -334,58 +336,61 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -679,22 +684,22 @@
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O37" sqref="O37"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="1.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="1.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="5" customWidth="1"/>
-    <col min="6" max="8" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="169" width="9.140625" style="5"/>
-    <col min="170" max="170" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="171" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="2" width="1.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="1.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="26" style="8" customWidth="1"/>
+    <col min="6" max="9" width="15" style="8" customWidth="1"/>
+    <col min="10" max="169" width="9.140625" style="8"/>
+    <col min="170" max="170" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="171" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,9 +709,9 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -714,602 +719,678 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="H5" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11">
         <f t="shared" ref="F7:G7" si="0">F8+F20</f>
         <v>8367788</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="11">
         <f t="shared" si="0"/>
         <v>8413204</v>
       </c>
-      <c r="H7" s="13">
-        <f t="shared" ref="H7" si="1">H8+H20</f>
+      <c r="H7" s="11">
+        <f t="shared" ref="H7:I7" si="1">H8+H20</f>
         <v>8868651</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12" t="s">
+      <c r="I7" s="11">
+        <f t="shared" si="1"/>
+        <v>8935854</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11">
         <f t="shared" ref="F8:G8" si="2">F9+F14</f>
         <v>300156</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="11">
         <f t="shared" si="2"/>
         <v>300156</v>
       </c>
-      <c r="H8" s="13">
-        <f t="shared" ref="H8" si="3">H9+H14</f>
+      <c r="H8" s="11">
+        <f t="shared" ref="H8:I8" si="3">H9+H14</f>
         <v>300156</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="5" t="s">
+      <c r="I8" s="11">
+        <f t="shared" si="3"/>
+        <v>300156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <f t="shared" ref="F9:G9" si="4">F10+F13</f>
         <v>300156</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="12">
         <f t="shared" si="4"/>
         <v>300156</v>
       </c>
-      <c r="H9" s="14">
-        <f t="shared" ref="H9" si="5">H10+H13</f>
+      <c r="H9" s="12">
+        <f t="shared" ref="H9:I9" si="5">H10+H13</f>
         <v>300156</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D10" s="5" t="s">
+      <c r="I9" s="12">
+        <f t="shared" si="5"/>
+        <v>300156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="13">
         <f>+F11+F12</f>
         <v>300156</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="13">
         <f>+G11+G12</f>
         <v>300156</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="13">
         <f>+H11+H12</f>
         <v>300156</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E11" s="5" t="s">
+      <c r="I10" s="13">
+        <f>+I11+I12</f>
+        <v>300156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>156</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="13">
         <v>156</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="13">
         <v>156</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="E12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="15">
+      <c r="I11" s="13">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="E12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="13">
         <v>300000</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="13">
         <v>300000</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="13">
         <v>300000</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D13" s="5" t="s">
+      <c r="I12" s="13">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="5" t="s">
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <f t="shared" ref="F14:G14" si="6">SUM(F15:F18)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H14" s="14">
-        <f t="shared" ref="H14" si="7">SUM(H15:H18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="5" t="s">
+      <c r="H14" s="12">
+        <f t="shared" ref="H14:I14" si="7">SUM(H15:H18)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="5" t="s">
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="5" t="s">
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15">
-        <v>0</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="5" t="s">
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="15">
-        <v>0</v>
-      </c>
-      <c r="G18" s="15">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="29">
         <v>8067632</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="29">
         <v>8113048</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="30">
         <v>8568495</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F21" s="15"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="I20" s="30">
+        <v>8635698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F21" s="13"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11">
         <f t="shared" ref="F22:G22" si="8">F23+F34</f>
         <v>3661884</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="11">
         <f t="shared" si="8"/>
         <v>3680296</v>
       </c>
-      <c r="H22" s="13">
-        <f t="shared" ref="H22" si="9">H23+H34</f>
+      <c r="H22" s="11">
+        <f t="shared" ref="H22:I22" si="9">H23+H34</f>
         <v>3811134</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12" t="s">
+      <c r="I22" s="11">
+        <f t="shared" si="9"/>
+        <v>3827333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="11">
         <f t="shared" ref="F23:G23" si="10">F24+F27</f>
         <v>1673954</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="11">
         <f t="shared" si="10"/>
         <v>1684137</v>
       </c>
-      <c r="H23" s="13">
-        <f t="shared" ref="H23" si="11">H24+H27</f>
+      <c r="H23" s="11">
+        <f t="shared" ref="H23:I23" si="11">H24+H27</f>
         <v>1686930</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="5" t="s">
+      <c r="I23" s="11">
+        <f t="shared" si="11"/>
+        <v>1675248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="19">
-        <f t="shared" ref="F24:H24" si="12">+F25+F26</f>
+      <c r="F24" s="31">
+        <f t="shared" ref="F24:I24" si="12">+F25+F26</f>
         <v>1673954</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="31">
         <f t="shared" si="12"/>
         <v>1684137</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="31">
         <f t="shared" si="12"/>
         <v>1686930</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D25" s="5" t="s">
+      <c r="I24" s="31">
+        <f t="shared" si="12"/>
+        <v>1675248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D25" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="13">
         <v>1657745</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="13">
         <v>1668100</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="25">
         <v>1671980</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D26" s="5" t="s">
+      <c r="I25" s="25">
+        <v>1661314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="13">
         <v>16209</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="13">
         <v>16037</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="25">
         <v>14950</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C27" s="5" t="s">
+      <c r="I26" s="25">
+        <v>13934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="14">
-        <f t="shared" ref="F27:H27" si="13">SUM(F28:F32)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="14">
+      <c r="F27" s="12">
+        <f t="shared" ref="F27:I27" si="13">SUM(F28:F32)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D28" s="5" t="s">
+      <c r="I27" s="12">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="15">
-        <v>0</v>
-      </c>
-      <c r="G28" s="15">
-        <v>0</v>
-      </c>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D29" s="5" t="s">
+      <c r="F28" s="13">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="15">
-        <v>0</v>
-      </c>
-      <c r="G29" s="15">
-        <v>0</v>
-      </c>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D30" s="5" t="s">
+      <c r="F29" s="13">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0</v>
+      </c>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+    </row>
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="15">
-        <v>0</v>
-      </c>
-      <c r="G30" s="15">
-        <v>0</v>
-      </c>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="5" t="s">
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="15">
-        <v>0</v>
-      </c>
-      <c r="G31" s="15">
-        <v>0</v>
-      </c>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="5" t="s">
+      <c r="F31" s="13">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="15">
-        <v>0</v>
-      </c>
-      <c r="G32" s="15">
-        <v>0</v>
-      </c>
-      <c r="H32" s="16"/>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:170" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" spans="1:170" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="12" t="s">
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="1:170" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="29">
         <v>1987930</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="29">
         <v>1996159</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="30">
         <v>2124204</v>
       </c>
+      <c r="I34" s="30">
+        <v>2152085</v>
+      </c>
     </row>
     <row r="35" spans="1:170" x14ac:dyDescent="0.2">
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="FN35" s="5">
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="FN35" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:170" x14ac:dyDescent="0.2">
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
     </row>
     <row r="37" spans="1:170" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21">
-        <f t="shared" ref="F37:H37" si="14">+F7+F22</f>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="32">
+        <f t="shared" ref="F37:I37" si="14">+F7+F22</f>
         <v>12029672</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="32">
         <f t="shared" si="14"/>
         <v>12093500</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="32">
         <f t="shared" si="14"/>
         <v>12679785</v>
       </c>
+      <c r="I37" s="32">
+        <f t="shared" si="14"/>
+        <v>12763187</v>
+      </c>
     </row>
     <row r="38" spans="1:170" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-    </row>
-    <row r="39" spans="1:170" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:170" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5">
         <v>51.134999999999998</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="5">
         <v>51.384999999999998</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="6">
         <v>51.905999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:170" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:170" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="27" t="s">
+      <c r="I39" s="6">
+        <v>52.335000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:170" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:170" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-    </row>
-    <row r="42" spans="1:170" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-    </row>
-    <row r="43" spans="1:170" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:170" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:170" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:170" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:170" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:170" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="1:170" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:170" x14ac:dyDescent="0.2">
-      <c r="A46" s="24"/>
+      <c r="A46" s="17"/>
     </row>
     <row r="47" spans="1:170" x14ac:dyDescent="0.2">
-      <c r="E47" s="24"/>
+      <c r="E47" s="17"/>
     </row>
     <row r="48" spans="1:170" x14ac:dyDescent="0.2">
-      <c r="A48" s="26"/>
-      <c r="E48" s="24"/>
+      <c r="A48" s="18"/>
+      <c r="E48" s="17"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="26"/>
-      <c r="E49" s="24"/>
+      <c r="A49" s="18"/>
+      <c r="E49" s="17"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="26"/>
-      <c r="E50" s="24"/>
+      <c r="A50" s="18"/>
+      <c r="E50" s="17"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="26"/>
-      <c r="E51" s="24"/>
+      <c r="A51" s="18"/>
+      <c r="E51" s="17"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="26"/>
-      <c r="E52" s="24"/>
+      <c r="A52" s="18"/>
+      <c r="E52" s="17"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="26"/>
-      <c r="E53" s="24"/>
+      <c r="A53" s="18"/>
+      <c r="E53" s="17"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="26"/>
-      <c r="E54" s="24"/>
+      <c r="A54" s="18"/>
+      <c r="E54" s="17"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="26"/>
-      <c r="E55" s="24"/>
+      <c r="A55" s="18"/>
+      <c r="E55" s="17"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="26"/>
-      <c r="E56" s="24"/>
+      <c r="A56" s="18"/>
+      <c r="E56" s="17"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="26"/>
-      <c r="E57" s="24"/>
+      <c r="A57" s="18"/>
+      <c r="E57" s="17"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="26"/>
-      <c r="E58" s="24"/>
+      <c r="A58" s="18"/>
+      <c r="E58" s="17"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="26"/>
-      <c r="E59" s="24"/>
+      <c r="A59" s="18"/>
+      <c r="E59" s="17"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="26"/>
-      <c r="E60" s="24"/>
+      <c r="A60" s="18"/>
+      <c r="E60" s="17"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="26"/>
-      <c r="E61" s="24"/>
+      <c r="A61" s="18"/>
+      <c r="E61" s="17"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
@@ -1452,6 +1533,7 @@
       <c r="E81" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="5VycYYegINmVls5enJE8+N1qzG9UIruLWm+8Gr2SDloLw2z0IWKDYqh59pjZq4HMFnOcxINGKujL5o3WnL5z6g==" saltValue="UwDdyaFC9ppZ6w1SyXjkMQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A5:E5"/>
   </mergeCells>
@@ -1466,27 +1548,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:XES52"/>
+  <dimension ref="A1:XES53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="M88" sqref="M88"/>
-      <selection pane="topRight" activeCell="M88" sqref="M88"/>
-      <selection pane="bottomLeft" activeCell="M88" sqref="M88"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="1.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="2.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="1.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="5" customWidth="1"/>
-    <col min="6" max="8" width="11.7109375" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="2" width="1.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="1.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="8" customWidth="1"/>
+    <col min="6" max="9" width="10.85546875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8 16373:16373" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9 16373:16373" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1496,9 +1574,10 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:8 16373:16373" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
+    <row r="2" spans="1:9 16373:16373" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="str">
+        <f>'2022'!A2</f>
+        <v>As of April 2022</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1506,302 +1585,364 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:8 16373:16373" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:9 16373:16373" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:8 16373:16373" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-    </row>
-    <row r="5" spans="1:8 16373:16373" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:9 16373:16373" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:9 16373:16373" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8 16373:16373" ht="6.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:8 16373:16373" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="H5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9 16373:16373" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:9 16373:16373" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="30">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24">
+        <f t="shared" ref="F7:G7" si="0">+F9+F16</f>
         <v>422516</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="24">
+        <f t="shared" si="0"/>
         <v>416204</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="24">
+        <f t="shared" ref="H7:I7" si="1">+H9+H16</f>
         <v>411044</v>
       </c>
-    </row>
-    <row r="8" spans="1:8 16373:16373" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8 16373:16373" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12" t="s">
+      <c r="I7" s="24">
+        <f t="shared" si="1"/>
+        <v>413428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9 16373:16373" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9 16373:16373" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11">
+        <f t="shared" ref="F9:G9" si="2">+F11+F12</f>
         <v>192957</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="11">
+        <f t="shared" si="2"/>
         <v>188890</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="11">
+        <f t="shared" ref="H9:I9" si="3">+H11+H12</f>
         <v>188135</v>
       </c>
-    </row>
-    <row r="10" spans="1:8 16373:16373" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8 16373:16373" x14ac:dyDescent="0.2">
-      <c r="C11" s="5" t="s">
+      <c r="I9" s="11">
+        <f t="shared" si="3"/>
+        <v>194292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9 16373:16373" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:9 16373:16373" x14ac:dyDescent="0.2">
+      <c r="C11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="13">
         <v>192821</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="13">
         <v>188754</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="25">
         <v>187999</v>
       </c>
-    </row>
-    <row r="12" spans="1:8 16373:16373" x14ac:dyDescent="0.2">
-      <c r="C12" s="5" t="s">
+      <c r="I11" s="25">
+        <v>194156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9 16373:16373" x14ac:dyDescent="0.2">
+      <c r="C12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
+        <f t="shared" ref="F12:G12" si="4">+F13+F14</f>
         <v>136</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="12">
+        <f t="shared" si="4"/>
         <v>136</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="12">
+        <f t="shared" ref="H12:I12" si="5">+H13+H14</f>
         <v>136</v>
       </c>
-    </row>
-    <row r="13" spans="1:8 16373:16373" x14ac:dyDescent="0.2">
-      <c r="D13" s="5" t="s">
+      <c r="I12" s="12">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9 16373:16373" x14ac:dyDescent="0.2">
+      <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <v>37</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="13">
         <v>37</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="13">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:8 16373:16373" x14ac:dyDescent="0.2">
-      <c r="D14" s="5" t="s">
+      <c r="I13" s="13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9 16373:16373" x14ac:dyDescent="0.2">
+      <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="13">
         <v>99</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="13">
         <v>99</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="13">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="1:8 16373:16373" x14ac:dyDescent="0.2">
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8 16373:16373" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12" t="s">
+      <c r="I14" s="13">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9 16373:16373" x14ac:dyDescent="0.2">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="1:9 16373:16373" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11">
+        <f t="shared" ref="F16:G16" si="6">+F18+F19</f>
         <v>229559</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="11">
+        <f t="shared" si="6"/>
         <v>227314</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="11">
+        <f t="shared" ref="H16:I16" si="7">+H18+H19</f>
         <v>222909</v>
       </c>
-      <c r="XES16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C18" s="5" t="s">
+      <c r="I16" s="11">
+        <f t="shared" si="7"/>
+        <v>219136</v>
+      </c>
+      <c r="XES16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="13">
         <v>225185</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="13">
         <v>222919</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="25">
         <v>218470</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C19" s="5" t="s">
+      <c r="I18" s="25">
+        <v>214661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="12">
+        <f t="shared" ref="F19:I19" si="8">SUM(F20:F23)</f>
         <v>4374</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="12">
+        <f t="shared" si="8"/>
         <v>4395</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="12">
+        <f t="shared" si="8"/>
         <v>4439</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D20" s="5" t="s">
+      <c r="I19" s="12">
+        <f t="shared" si="8"/>
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="13">
         <v>4334</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="13">
         <v>4395</v>
       </c>
-      <c r="H20" s="16">
+      <c r="H20" s="25">
         <v>4439</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="5" t="s">
+      <c r="I20" s="25">
+        <v>4475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="15">
-        <v>0</v>
-      </c>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D22" s="5" t="s">
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="13">
         <v>40</v>
       </c>
-      <c r="G22" s="15">
-        <v>0</v>
-      </c>
-      <c r="H22" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="G22" s="13">
+        <v>0</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0</v>
+      </c>
+      <c r="I22" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
@@ -1936,7 +2077,15 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="/Fj3Cyvgc70xhp3IERNqyoFMzbx1kEtlzGcZT8mDdOAFCYC9CspEGHVD7Cw8Cp+DPvXkyOULwzcdZz0SVgMLnA==" saltValue="6zXMde7ujYo9CnWM6jBixw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A5:E5"/>
   </mergeCells>
